--- a/mongo_db/new_york_pizza_clean.xlsx
+++ b/mongo_db/new_york_pizza_clean.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\graphs\mongo_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC412D31-0E21-4498-A76C-05D3D6A2D03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B479F8-AB5D-4E9B-9D32-795BE4A193D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15568,10 +15568,10 @@
     <t>datum</t>
   </si>
   <si>
+    <t>score_lieferung</t>
+  </si>
+  <si>
     <t>score_essen</t>
-  </si>
-  <si>
-    <t>score_lieferung</t>
   </si>
 </sst>
 </file>
@@ -15937,7 +15937,7 @@
   <dimension ref="A1:G3202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15957,10 +15957,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5183</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5182</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5183</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
